--- a/Document/WeaponAppearanceTable.xlsx
+++ b/Document/WeaponAppearanceTable.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F5D422-F182-415A-B622-CABC3FD47763}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424C1059-EF12-43CC-B7BD-A5D0A3E02BE6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="50">
   <si>
     <t>Name</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -186,6 +186,15 @@
   </si>
   <si>
     <t>Ferrox</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>SKM_AK</t>
+  </si>
+  <si>
+    <t>PS_ChickenMaster_MuzzleFlash</t>
   </si>
 </sst>
 </file>
@@ -520,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,215 +557,602 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Document/WeaponAppearanceTable.xlsx
+++ b/Document/WeaponAppearanceTable.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424C1059-EF12-43CC-B7BD-A5D0A3E02BE6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0288804-FE1F-4699-A403-E49F233534F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="52">
   <si>
     <t>Name</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>PS_ChickenMaster_MuzzleFlash</t>
+  </si>
+  <si>
+    <t>OnHitEmitter</t>
+  </si>
+  <si>
+    <t>FXS_RoundInstantOnHit</t>
   </si>
 </sst>
 </file>
@@ -527,19 +533,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B44"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="54.7109375" style="1" customWidth="1"/>
+    <col min="2" max="5" width="54.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -552,8 +558,11 @@
       <c r="D1" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -566,8 +575,11 @@
       <c r="D2" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -580,8 +592,11 @@
       <c r="D3" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -594,8 +609,11 @@
       <c r="D4" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -608,8 +626,11 @@
       <c r="D5" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -622,8 +643,11 @@
       <c r="D6" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
@@ -636,8 +660,11 @@
       <c r="D7" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -650,8 +677,11 @@
       <c r="D8" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -664,8 +694,11 @@
       <c r="D9" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -678,8 +711,11 @@
       <c r="D10" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -692,8 +728,11 @@
       <c r="D11" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -706,8 +745,11 @@
       <c r="D12" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -720,8 +762,11 @@
       <c r="D13" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -734,8 +779,11 @@
       <c r="D14" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -748,8 +796,11 @@
       <c r="D15" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -762,8 +813,11 @@
       <c r="D16" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -776,8 +830,11 @@
       <c r="D17" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -790,8 +847,11 @@
       <c r="D18" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -804,8 +864,11 @@
       <c r="D19" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -818,8 +881,11 @@
       <c r="D20" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -832,8 +898,11 @@
       <c r="D21" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -846,8 +915,11 @@
       <c r="D22" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
@@ -860,8 +932,11 @@
       <c r="D23" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -874,8 +949,11 @@
       <c r="D24" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
@@ -888,8 +966,11 @@
       <c r="D25" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
@@ -902,8 +983,11 @@
       <c r="D26" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
@@ -916,8 +1000,11 @@
       <c r="D27" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>46</v>
       </c>
@@ -930,8 +1017,11 @@
       <c r="D28" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
@@ -944,8 +1034,11 @@
       <c r="D29" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>23</v>
       </c>
@@ -958,8 +1051,11 @@
       <c r="D30" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
@@ -972,8 +1068,11 @@
       <c r="D31" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
@@ -986,8 +1085,11 @@
       <c r="D32" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>26</v>
       </c>
@@ -1000,8 +1102,11 @@
       <c r="D33" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>27</v>
       </c>
@@ -1014,8 +1119,11 @@
       <c r="D34" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
@@ -1028,8 +1136,11 @@
       <c r="D35" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>29</v>
       </c>
@@ -1042,8 +1153,11 @@
       <c r="D36" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>30</v>
       </c>
@@ -1056,8 +1170,11 @@
       <c r="D37" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>31</v>
       </c>
@@ -1070,8 +1187,11 @@
       <c r="D38" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1084,8 +1204,11 @@
       <c r="D39" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1098,8 +1221,11 @@
       <c r="D40" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1112,8 +1238,11 @@
       <c r="D41" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1126,8 +1255,11 @@
       <c r="D42" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1140,8 +1272,11 @@
       <c r="D43" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1153,6 +1288,9 @@
       </c>
       <c r="D44" s="1" t="s">
         <v>47</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
